--- a/medicine/Psychotrope/Friuli_Aquileia_Cabernet_Sauvignon/Friuli_Aquileia_Cabernet_Sauvignon.xlsx
+++ b/medicine/Psychotrope/Friuli_Aquileia_Cabernet_Sauvignon/Friuli_Aquileia_Cabernet_Sauvignon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">{{Infobox VinoDOC
 tipo=DOC
@@ -526,7 +538,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province d'Udine dans les communes de Bagnaria Arsa, Cervignano del Friuli, Aquileia, Fiumicello, Villa Vicentina, Ruda, Campolongo Tapogliano, Aiello del Friuli, Visco et San Vito al Torre ainsi qu'en partie dans les communes de Santa Maria la Longa, Palmanova, Terzo d'Aquileia, Chiopris-Viscone, Trivignano Udinese et Gonars.
 </t>
@@ -557,7 +571,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : rouge rubis intense tendant vers un rouge grenat avec le vieillissement
 odeur : vineux, intense, agréable, légèrement épicé,
@@ -592,6 +608,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,6 +636,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -643,7 +663,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres :
 Udine : (1990/91) 721,57
